--- a/frontend-next/public/templates/gob_template.xlsx
+++ b/frontend-next/public/templates/gob_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Egresados</t>
   </si>
@@ -29,10 +29,13 @@
     <t xml:space="preserve">Titulados</t>
   </si>
   <si>
-    <t xml:space="preserve">{results.year}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{results.count}</t>
+    <t xml:space="preserve">{summary.year}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{summary.graduates}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{summary.titles}</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -205,40 +208,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,41 +500,43 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -547,175 +556,175 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="32.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="27.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="5" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="32.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="27.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="6" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/frontend-next/public/templates/gob_template.xlsx
+++ b/frontend-next/public/templates/gob_template.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITE\Trabajos Semestres Cursados\Trabajos 9no Semestre\Sistema-CT\frontend-next\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904F14E-692C-4492-97A8-0734D036ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="year" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="year" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,121 +26,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Egresados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titulados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{summary.year}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{summary.graduates}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{summary.titles}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEPEBC ART. 13, FRACC II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relación de personas que hayan concluido los estudios profesonales en los niveles de educación superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEPEBC ART. 13, FRACC III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relación de personas a quienes se les haya expedido título profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de la Institución Educativa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Tecnológico de Ensenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre del plan y programa de estudios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{career}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generación de egresados número</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{gen} Generación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Año</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{year}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de egresados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{count}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apellido paterno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apellido materno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Año de titulación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{students.name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{students.last_name1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{students.last_name2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{students.title_date}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Egresados</t>
+  </si>
+  <si>
+    <t>Titulados</t>
+  </si>
+  <si>
+    <t>{summary.year}</t>
+  </si>
+  <si>
+    <t>{summary.graduates}</t>
+  </si>
+  <si>
+    <t>{summary.titles}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LEPEBC ART. 13, FRACC II</t>
+  </si>
+  <si>
+    <t>Relación de personas que hayan concluido los estudios profesonales en los niveles de educación superior</t>
+  </si>
+  <si>
+    <t>LEPEBC ART. 13, FRACC III</t>
+  </si>
+  <si>
+    <t>Relación de personas a quienes se les haya expedido título profesional</t>
+  </si>
+  <si>
+    <t>Nombre de la Institución Educativa</t>
+  </si>
+  <si>
+    <t>Instituto Tecnológico de Ensenada</t>
+  </si>
+  <si>
+    <t>Nombre del plan y programa de estudios</t>
+  </si>
+  <si>
+    <t>{career}</t>
+  </si>
+  <si>
+    <t>Generación de egresados número</t>
+  </si>
+  <si>
+    <t>{gen} Generación</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>{year}</t>
+  </si>
+  <si>
+    <t>Número de egresados</t>
+  </si>
+  <si>
+    <t>{count}</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido paterno</t>
+  </si>
+  <si>
+    <t>Apellido materno</t>
+  </si>
+  <si>
+    <t>Año de titulación</t>
+  </si>
+  <si>
+    <t>{students.name}</t>
+  </si>
+  <si>
+    <t>{students.last_name1}</t>
+  </si>
+  <si>
+    <t>{students.last_name2}</t>
+  </si>
+  <si>
+    <t>{students.title_date}</t>
+  </si>
+  <si>
+    <t>{totalGraduates}</t>
+  </si>
+  <si>
+    <t>{totalTitles}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -145,7 +137,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Droid Sans"/>
@@ -168,96 +160,71 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -316,60 +283,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -401,7 +384,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -425,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -485,176 +468,171 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.31"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="32.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="27.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="6" width="9"/>
+    <col min="1" max="1" width="32.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="29.85" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="29.85" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="29.85" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -668,80 +646,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>